--- a/report/output.xlsx
+++ b/report/output.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="C4" sheetId="1" r:id="rId1"/>
+    <sheet name="C1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -434,31 +434,31 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Linen Comfort</v>
+        <v>Cotton Blend</v>
       </c>
       <c r="B2" t="str">
-        <v>Green</v>
+        <v>White</v>
       </c>
       <c r="C2">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="D2" t="str">
-        <v>O4</v>
+        <v>O1</v>
       </c>
       <c r="E2" s="1">
-        <v>44954.29201388889</v>
+        <v>44941.29201388889</v>
       </c>
       <c r="F2" t="str">
-        <v>20.00</v>
+        <v>75.00</v>
       </c>
       <c r="G2" t="str">
-        <v>processing</v>
+        <v>completed</v>
       </c>
       <c r="H2" s="1">
-        <v>44955.29201388889</v>
+        <v>44942.29201388889</v>
       </c>
       <c r="I2" t="str">
-        <v>5.00</v>
+        <v>25.00</v>
       </c>
     </row>
   </sheetData>
